--- a/va_facility_data_2025-02-20/Ottumwa VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ottumwa%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ottumwa VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ottumwa%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R91b3a2f01d49439495cf3af9cd77463b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra6d6d9d2cab442e28de27629515f94a9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8fc9b133fa134217aa57fc6e79512cf6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4a04e4fc088745cb9fde0db880c6e9af"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5639a28cd6b348bcb2a7865fc9d0ce8b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R32941c67ef0b4e3498dafe00850caeef"/>
   </x:sheets>
 </x:workbook>
 </file>
